--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value620.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value620.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26979796500193</v>
+        <v>1.279124021530151</v>
       </c>
       <c r="B1">
-        <v>2.500441598193785</v>
+        <v>2.931780815124512</v>
       </c>
       <c r="C1">
-        <v>4.369328302255187</v>
+        <v>5.378939151763916</v>
       </c>
       <c r="D1">
-        <v>2.535389091392592</v>
+        <v>1.856570720672607</v>
       </c>
       <c r="E1">
-        <v>1.03394746196715</v>
+        <v>1.021705985069275</v>
       </c>
     </row>
   </sheetData>
